--- a/quatrains_about_the_message.xlsx
+++ b/quatrains_about_the_message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fb30db4f08b4946/Documents/GitHub/message-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01FC1AE5-5FEF-44BC-8A7D-B30A416D4BD7}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F588FD5C-D405-4CC4-9CE3-F110A45604DD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>номер катрена:</t>
   </si>
@@ -115,6 +115,114 @@
   </si>
   <si>
     <t>https://blagayavest.info/poems/2017-11-01</t>
+  </si>
+  <si>
+    <t>Посыл на Любовь</t>
+  </si>
+  <si>
+    <t>Посыл на Любовь подхватят везде!^В Посыле не бывает первых!^В Посыле и нации равны все,^Посыл – это промысел Верных!</t>
+  </si>
+  <si>
+    <t>https://blagayavest.info/poems/20.01.18.html</t>
+  </si>
+  <si>
+    <t>Небо и небыль</t>
+  </si>
+  <si>
+    <t>Россия посылает в Небо Любовь!^Любовь отражается на континентах,^Посыл структурирует кровь,^Даже у своих оппонентов!</t>
+  </si>
+  <si>
+    <t>https://blagayavest.info/poems/05.06.18.html</t>
+  </si>
+  <si>
+    <t>Условия</t>
+  </si>
+  <si>
+    <t>Главное, Посыл и Решимость!^Желание Богов творить!^Проявится тогда и Терпимость,^Люди-Боги начнут говорить!</t>
+  </si>
+  <si>
+    <t>https://blagayavest.info/poems/01.08.18.html</t>
+  </si>
+  <si>
+    <t>Посыл и Промысел</t>
+  </si>
+  <si>
+    <t>Не хватает совсем немного!^Посыл должен быть полноценным!^Вам надо скорректировать слог,^Значит, сконцентрировать и Цель!</t>
+  </si>
+  <si>
+    <t>https://blagayavest.info/poems/2018-08-21</t>
+  </si>
+  <si>
+    <t>Рычаг Любви</t>
+  </si>
+  <si>
+    <t>Вы в Посылах несёте Любовь,^Информация проникает в тело,^Её к каждой клетке разносит кровь,^Человек в Любви – человек Света!</t>
+  </si>
+  <si>
+    <t>https://blagayavest.info/poems/2018-08-22</t>
+  </si>
+  <si>
+    <t>Тысячи спасут миллионы</t>
+  </si>
+  <si>
+    <t>Повторяю, ваш Посыл действует!^Люди меняются, не зная того!^Главное, люди в Посыле участвуют,^И их неожиданно много!</t>
+  </si>
+  <si>
+    <t>https://blagayavest.info/poems/2018-08-23</t>
+  </si>
+  <si>
+    <t>Человек - Золотое сечение</t>
+  </si>
+  <si>
+    <t>Посыл формирует Пространство!^Без Дуальности, только в Любви!^Человек прекращает странствия,^Энергии выравниваются внутри!</t>
+  </si>
+  <si>
+    <t>https://blagayavest.info/poems/2018-08-26</t>
+  </si>
+  <si>
+    <t>Небывалое в Мире оружие</t>
+  </si>
+  <si>
+    <t>Выверенные вами Посылы,^Небывалое в Мире “оружие”!^Они сказками раньше слыли,^Теперь очищают они окружение!</t>
+  </si>
+  <si>
+    <t>https://blagayavest.info/poems/2018-09-18</t>
+  </si>
+  <si>
+    <t>Эта Чаша вас не минует</t>
+  </si>
+  <si>
+    <t>Посылы ведут к накоплению!^Достигнете Критической массы,^Произойдёт Историческое явление!^Появление людей-Богов касты!</t>
+  </si>
+  <si>
+    <t>https://blagayavest.info/poems/2018-09-19</t>
+  </si>
+  <si>
+    <t>Сфера Разума</t>
+  </si>
+  <si>
+    <t>Отнеситесь к Посылу с Верой,^Влияние Любви увеличивается,^Посыл на Любовь – есть мера,^Тогда Спасение достигается!</t>
+  </si>
+  <si>
+    <t>https://blagayavest.info/poems/2018-10-13</t>
+  </si>
+  <si>
+    <t>В Небо пускают не всех</t>
+  </si>
+  <si>
+    <t>Каждый день, да ещё два раза,^Частота Посыла выше намного быта,^Не получится Преображения сразу,^Но, жизнь теперь не отбытие!</t>
+  </si>
+  <si>
+    <t>https://blagayavest.info/poems/2018-10-15</t>
+  </si>
+  <si>
+    <t>Истоки и Приказ</t>
+  </si>
+  <si>
+    <t>Внешний прогресс – ничто!^Для Бога важнее – внутренний!^Человек, как и Бог, может всё!^Если Посыл – не ветреный!</t>
+  </si>
+  <si>
+    <t>https://blagayavest.info/poems/2018-11-15</t>
   </si>
 </sst>
 </file>
@@ -444,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +563,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="98.85546875" customWidth="1"/>
+    <col min="4" max="4" width="127.5703125" customWidth="1"/>
     <col min="5" max="5" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -627,6 +735,210 @@
       </c>
       <c r="E10" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43256</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43313</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43333</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43334</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43335</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43338</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43361</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43362</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43386</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43388</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43419</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -640,8 +952,20 @@
     <hyperlink ref="E8" r:id="rId7" xr:uid="{A9300DE9-E095-45F9-8626-409D051B429F}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{4DDECF0D-3E74-43EC-B809-5E792C47A7A6}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{75626312-5A54-4C4F-A472-DDD07BB5F80E}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{D85AAA64-4365-47F6-893F-2625CAA74EED}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{5E567A2F-5B6B-42C5-9C40-72E5463AC337}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{6F9EE802-460D-47B8-B0B3-9FDADEFA36F9}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{22B731D8-D572-4967-AA6B-CFFFBA147D4B}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{A40FD187-6B60-4BCC-9A54-BD0107A81BA1}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{9D21495E-6A99-4AE1-AA18-FB6DB879E69B}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{DF7816B3-F849-4213-A675-E2A1ACB19C94}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{F72ED9FC-082E-4F46-BE6B-F1D23528A730}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{D459EFD6-BF43-40CC-AB47-0E0B0D4D421D}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{F13B8808-7912-4E77-A57A-4B911BAA46B7}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{75A99492-EEF2-4563-8A63-FDD947176BBB}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{00F09C46-20F4-4FFA-815C-A0F3AE215C25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId22"/>
 </worksheet>
 </file>